--- a/biology/Biologie cellulaire et moléculaire/Protéine_fluorescente_bleue/Protéine_fluorescente_bleue.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Protéine_fluorescente_bleue/Protéine_fluorescente_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_fluorescente_bleue</t>
+          <t>Protéine_fluorescente_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine fluorescente bleue  (souvent abrégé BFP, de l'anglais « Blue Fluorescent Protein ») est une protéine ayant la propriété d'émettre une fluorescence de couleur bleue. C'est une mutation de la protéine fluorescente verte, avec remplacement de ses acides aminés Tyrosine 66 par de l'Histidine et Tyrosine 145 par de la Phénylalanine[1].  Elle est utilisée comme marqueur en biologie moléculaire. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine fluorescente bleue  (souvent abrégé BFP, de l'anglais « Blue Fluorescent Protein ») est une protéine ayant la propriété d'émettre une fluorescence de couleur bleue. C'est une mutation de la protéine fluorescente verte, avec remplacement de ses acides aminés Tyrosine 66 par de l'Histidine et Tyrosine 145 par de la Phénylalanine.  Elle est utilisée comme marqueur en biologie moléculaire. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_fluorescente_bleue</t>
+          <t>Protéine_fluorescente_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Données physico-chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La BFP présente une structure cristalline[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La BFP présente une structure cristalline.
 </t>
         </is>
       </c>
